--- a/src/main/resources/input/Logius/props/Logius.xlsx
+++ b/src/main/resources/input/Logius/props/Logius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Logius\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4C3F22-7C5A-4E13-A214-C0B4F864F2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6919152-5B92-4982-BF6B-40AD4B45F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="354">
   <si>
     <t>Name</t>
   </si>
@@ -847,9 +847,6 @@
     <t>Specify the type of office file. Multiple formats are allowed, separate list by whitespace.</t>
   </si>
   <si>
-    <t>respec msword</t>
-  </si>
-  <si>
     <t>createskos</t>
   </si>
   <si>
@@ -1057,10 +1054,40 @@
     <t>http://www.logius.nl/schemas</t>
   </si>
   <si>
-    <t>Logius-CONCEPTUAL</t>
-  </si>
-  <si>
-    <t>Logius-LOGICAL</t>
+    <t>metamodelname</t>
+  </si>
+  <si>
+    <t>Name of the metamodel. When this is a MIM model, specify MIM</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>metamodelversion</t>
+  </si>
+  <si>
+    <t>Version of the metamodel. When this is a MIM model, specify the MIM version</t>
+  </si>
+  <si>
+    <t>metamodelextension</t>
+  </si>
+  <si>
+    <t>Name of the extension. When this is a MIM model, specify the MIM extension name</t>
+  </si>
+  <si>
+    <t>metamodelextensionversion</t>
+  </si>
+  <si>
+    <t>Vetsion of the extension. When this is a MIM model, specify the MIM extension version</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>CONCEPTUAL</t>
+  </si>
+  <si>
+    <t>LOGICAL</t>
   </si>
 </sst>
 </file>
@@ -1533,13 +1560,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1624,35 +1651,35 @@
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2"/>
@@ -2031,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2076,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
@@ -2100,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2307,13 +2334,13 @@
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
@@ -2357,13 +2384,13 @@
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2522,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G32" s="14"/>
       <c r="M32" s="14"/>
@@ -2531,13 +2558,13 @@
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2629,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
@@ -2653,40 +2680,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="M37" s="14"/>
-      <c r="N37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="S37" s="14"/>
       <c r="T37"/>
     </row>
@@ -2743,13 +2740,13 @@
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="18" t="b">
         <v>0</v>
@@ -3129,7 +3126,7 @@
       <c r="S51" s="14"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>221</v>
       </c>
@@ -3142,37 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S52" s="15"/>
       <c r="T52"/>
     </row>
@@ -3322,13 +3289,13 @@
     </row>
     <row r="59" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
@@ -3369,13 +3336,13 @@
     </row>
     <row r="60" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="11" t="b">
         <v>0</v>
@@ -3400,22 +3367,22 @@
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="D61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="G61" s="14"/>
       <c r="M61" s="14"/>
@@ -3424,13 +3391,13 @@
     </row>
     <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
@@ -3477,13 +3444,13 @@
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3492,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64" s="14"/>
       <c r="M64" s="14"/>
@@ -3501,22 +3468,22 @@
     </row>
     <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
       <c r="C65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>298</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>299</v>
       </c>
       <c r="G65" s="14"/>
       <c r="M65" s="14"/>
@@ -3540,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="11"/>
@@ -3606,13 +3573,13 @@
     </row>
     <row r="69" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>0</v>
@@ -3717,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3772,7 +3739,7 @@
       <c r="S75" s="14"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -3789,70 +3756,43 @@
         <v>0</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M76" s="14"/>
-      <c r="N76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S76" s="14"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>0</v>
@@ -3861,21 +3801,22 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
       <c r="S78" s="14"/>
+      <c r="T78"/>
     </row>
     <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -3883,69 +3824,92 @@
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="G79" s="14"/>
+      <c r="H79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="M79" s="14"/>
+      <c r="N79" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="S79" s="14"/>
-    </row>
-    <row r="80" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T79"/>
+    </row>
+    <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G80" s="14"/>
       <c r="M80" s="14"/>
       <c r="S80" s="14"/>
-    </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>16</v>
+      <c r="T80"/>
+    </row>
+    <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
       <c r="T81"/>
     </row>
-    <row r="82" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3954,164 +3918,134 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
       <c r="M82" s="14"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
       <c r="S82" s="14"/>
-      <c r="T82"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="D83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
       <c r="S83" s="14"/>
-      <c r="T83"/>
-    </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
-      <c r="T84"/>
-    </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="b">
-        <v>0</v>
+    </row>
+    <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M85" s="14"/>
-      <c r="N85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S85" s="14"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G86" s="14"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
       <c r="M86" s="14"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
       <c r="S86" s="14"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>341</v>
+    <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
@@ -4120,13 +4054,13 @@
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>0</v>
@@ -4135,423 +4069,419 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>213</v>
+    <row r="89" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G89" s="14"/>
       <c r="M89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="F90" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G90" s="14"/>
-      <c r="H90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="M90" s="14"/>
-      <c r="N90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="S90" s="14"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>89</v>
+    <row r="91" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>93</v>
+    <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D93" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>16</v>
+    <row r="94" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G94" s="14"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18" t="s">
-        <v>4</v>
+      <c r="H94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M94" s="14"/>
+      <c r="N94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="S94" s="14"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>1</v>
+    <row r="96" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M96" s="14"/>
-      <c r="N96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S96" s="14"/>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>4</v>
+      <c r="C97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G97" s="14"/>
       <c r="M97" s="14"/>
       <c r="S97" s="14"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>269</v>
+    <row r="98" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="G98" s="14"/>
-      <c r="M98" s="14"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98" s="19"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S98" s="14"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="D99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="G99" s="14"/>
       <c r="M99" s="14"/>
       <c r="S99" s="14"/>
       <c r="T99"/>
     </row>
-    <row r="100" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G100" s="14"/>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M100" s="14"/>
+      <c r="N100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S100" s="14"/>
       <c r="T100"/>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>278</v>
+        <v>152</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G101" s="14"/>
       <c r="M101" s="14"/>
       <c r="S101" s="14"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>276</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
-        <v>277</v>
-      </c>
-      <c r="D102" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>341</v>
+      <c r="C102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
       <c r="S102" s="14"/>
       <c r="T102"/>
-      <c r="U102"/>
-    </row>
-    <row r="103" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
@@ -4560,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="G103" s="14"/>
       <c r="M103" s="14"/>
@@ -4569,13 +4499,13 @@
     </row>
     <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>0</v>
@@ -4584,76 +4514,80 @@
         <v>1</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
       <c r="S104" s="14"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
       <c r="S105" s="14"/>
       <c r="T105"/>
     </row>
-    <row r="106" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
+    <row r="106" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>340</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
       <c r="T106"/>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U106"/>
+    </row>
+    <row r="107" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
@@ -4662,375 +4596,304 @@
     </row>
     <row r="108" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M108" s="14"/>
-      <c r="N108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S108" s="14"/>
       <c r="T108"/>
     </row>
-    <row r="109" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>220</v>
+    <row r="109" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
       <c r="S109" s="14"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>220</v>
+    <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>16</v>
+    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="14"/>
-      <c r="H112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M112" s="14"/>
-      <c r="N112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S112" s="14"/>
       <c r="T112"/>
     </row>
-    <row r="113" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="b">
-        <v>1</v>
+    <row r="113" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G113" s="14"/>
-      <c r="H113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M113" s="14"/>
-      <c r="N113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S113" s="14"/>
       <c r="T113"/>
     </row>
-    <row r="114" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="b">
-        <v>1</v>
+    <row r="114" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G114" s="14"/>
-      <c r="H114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M114" s="14"/>
-      <c r="N114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S114" s="14"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>4</v>
+      <c r="C115" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
       <c r="S115" s="14"/>
       <c r="T115"/>
     </row>
-    <row r="116" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>279</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="116" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
-        <v>280</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>4</v>
+      <c r="C116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116" s="17"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116" s="17"/>
+      <c r="H116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M116" s="14"/>
+      <c r="N116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S116" s="14"/>
       <c r="T116"/>
-      <c r="U116"/>
-    </row>
-    <row r="117" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A117" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>16</v>
+    </row>
+    <row r="117" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G117" s="14"/>
+      <c r="H117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M117" s="14"/>
+      <c r="N117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S117" s="14"/>
       <c r="T117"/>
     </row>
     <row r="118" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="1" t="b">
         <v>1</v>
@@ -5070,140 +4933,98 @@
       <c r="S118" s="14"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F119" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M119" s="14"/>
-      <c r="N119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S119" s="14"/>
       <c r="T119"/>
     </row>
-    <row r="120" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="b">
-        <v>1</v>
+    <row r="120" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M120" s="14"/>
-      <c r="N120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="S120" s="14"/>
-    </row>
-    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>341</v>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120" s="17"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120" s="17"/>
+      <c r="T120"/>
+      <c r="U120"/>
+    </row>
+    <row r="121" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G121" s="14"/>
       <c r="M121" s="14"/>
       <c r="S121" s="14"/>
       <c r="T121"/>
     </row>
-    <row r="122" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5211,37 +5032,183 @@
       <c r="E122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G122" s="14"/>
+      <c r="H122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M122" s="14"/>
+      <c r="N122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S122" s="14"/>
       <c r="T122"/>
     </row>
-    <row r="123" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="G123" s="14"/>
+      <c r="H123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M123" s="14"/>
+      <c r="N123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S123" s="14"/>
       <c r="T123"/>
+    </row>
+    <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="S124" s="14"/>
+    </row>
+    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125"/>
+    </row>
+    <row r="126" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126"/>
+    </row>
+    <row r="127" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
